--- a/medicine/Psychotrope/Coteaux-de-narbonne/Coteaux-de-narbonne.xlsx
+++ b/medicine/Psychotrope/Coteaux-de-narbonne/Coteaux-de-narbonne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le vin Coteaux-de-narbonne, anciennement vin de Pays des Coteaux-de-narbonne, est un vin français d'indication géographique protégée de zone, produit dans le département de l'Aude.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le territoire de l'IGP est une zone qui possède une riche histoire. Narbonne fut il y a de ça 2000 ans la capitale de la Gaule romaine. Du fait de sa situation, la ville est un véritable carrefour. C'est là que se croisent la Via Domitia et la Via Aquitania. De plus, la ville possède un port très important. Ainsi, le vignoble de la région de Narbonnaise possède une situation très intéressante. La production peut ainsi être exportée à travers toute l'Europe. 
 Les siècles qui vont suivre vont voir le vignoble connaître de nombreux bas.
@@ -548,71 +562,349 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Aire de l'IGP
-Zone principale
-11 communes sont concernées dans l'Aude : Armissan, Coursan, Cuxac-d'Aude, Fleury-d'Aude, Narbonne, Marcorignan, Moussan, Ouveillan, Salles-d'Aude, Sallèles-d'Aude et Vinassan.
-Zone de proximité immédiate
-Les communes de l'Aude
+          <t>Aire de l'IGP</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Zone principale</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11 communes sont concernées dans l'Aude : Armissan, Coursan, Cuxac-d'Aude, Fleury-d'Aude, Narbonne, Marcorignan, Moussan, Ouveillan, Salles-d'Aude, Sallèles-d'Aude et Vinassan.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Coteaux-de-narbonne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-narbonne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aire de l'IGP</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Zone de proximité immédiate</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les communes de l'Aude
 15 communes sont concernées dans l'Aude :
 Argeliers, Bages, Bizanet, Cuxac d'Aude, Gruissan, Mirepeisset, Montredon-des-Corbières, Névian, Peyriac-de-Mer, Port-la-Nouvelle, Raissac-d'Aude, Saint-André-de-Roquelongue, Saint-Marcel-sur-Aude, Saint-Nazaire-d'Aude et Sigean.
 Les communes de l'Hérault
 7 communes sont concernées dans l'Hérault : Capestang, Cruzy, Lespignan, Montels, Nissan-lez-Enserune, Quarante et Vendres.
-Orographie et géologie
-Climat</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Coteaux-de-narbonne</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Coteaux-de-narbonne</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Coteaux-de-narbonne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-narbonne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Présentation
-Conditions de production
-Encépagement
-Cépages noirs
-Les cépages noirs utilisés sont : l'Alicante henri bouschet N, l'Alphonse lavallée N, l'Aramon N, l'Arinarnoa N, l'Aubun N, le Cabernet franc N, le Cabernet-sauvignon N, le Caladoc N, le Carignan N, le Carmenère N, le Chenanson N, le Cinsaut N, le Cot N, l'Egiodola N, le Fer N, le Gamay N, le Gamay de Chaudenay N, le Ganson N, le Gramon N, le Grenache N, le Jurançon noir N, le Lledoner pelut N, le Marselan N, le Merlot N, la Mondeuse N, le Monerac N, le Morrastel N, le Mourvèdre N, le Muscat de hambourg N, la Négrette N, le Nielluccio N, le Petit verdot N, le Pinot noir N, le Piquepoul noir N, le Portan N, le Ribol N, le Syrah N, le Tannat N, le Tempranillo N et le Terret noir N.
-Cépages blancs
-Les cépages blancs utilisés sont : l'Altesse B, l'Alvarinho B, l'Aranel B, l'Arriloba B, le Bourboulenc B, le Carignan blanc B, le Chardonnay B, le Chasan B, le Chasselas B, le Chenin B, la Clairette B, le Colombard B, le Danlas B, le Grenache blanc B, le Gros manseng B, le Listan B, le Macabeu B, le Marsanne B, le Mauzac B, le Muscat à petits grains blancs B, le Muscat d'Alexandrie B, le Parellada B, le Petit manseng B, le Pinot blanc B, le Piquepoul blanc B, le Riesling B, le Roussanne B, le Sauvignon B, le Semillon B, le Sylvaner B, le Terret blanc B, le Tourbat B, L'Ugni blanc B, le Verdelho B, le Vermentino B, le Villard blanc B et le Viognier B.
-Cépages gris
-Les cépages gris utilisés sont : le Grenache gris G, le Pinot gris G, le Sauvignon gris G et le Terret gris G.
-Cépages roses
-Les cépages roses utilisés sont : le Chasselas rose Rs, la Clairette rose Rs, le Gewurztraminer Rs et le Mauzac rose Rs.
-Cépages rouges
-Les cépages rouges utilisés sont : le Cardinal Rg et le Muscat à petits grains rouges Rg.
-Types de vin
-Il existe 6 labellisations différentes :
-Coteaux de Narbonne blanc[1]
-Coteaux de Narbonne rosé[2]
-Coteaux de Narbonne rouge[3]
-Coteaux de Narbonne primeur ou nouveau blanc[4]
-Coteaux de Narbonne primeur ou nouveau rosé[5]
-Coteaux de Narbonne primeur ou nouveau rouge[6]
-Vin et gastronomie
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Cépages noirs</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cépages noirs utilisés sont : l'Alicante henri bouschet N, l'Alphonse lavallée N, l'Aramon N, l'Arinarnoa N, l'Aubun N, le Cabernet franc N, le Cabernet-sauvignon N, le Caladoc N, le Carignan N, le Carmenère N, le Chenanson N, le Cinsaut N, le Cot N, l'Egiodola N, le Fer N, le Gamay N, le Gamay de Chaudenay N, le Ganson N, le Gramon N, le Grenache N, le Jurançon noir N, le Lledoner pelut N, le Marselan N, le Merlot N, la Mondeuse N, le Monerac N, le Morrastel N, le Mourvèdre N, le Muscat de hambourg N, la Négrette N, le Nielluccio N, le Petit verdot N, le Pinot noir N, le Piquepoul noir N, le Portan N, le Ribol N, le Syrah N, le Tannat N, le Tempranillo N et le Terret noir N.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Coteaux-de-narbonne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-narbonne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cépages blancs</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cépages blancs utilisés sont : l'Altesse B, l'Alvarinho B, l'Aranel B, l'Arriloba B, le Bourboulenc B, le Carignan blanc B, le Chardonnay B, le Chasan B, le Chasselas B, le Chenin B, la Clairette B, le Colombard B, le Danlas B, le Grenache blanc B, le Gros manseng B, le Listan B, le Macabeu B, le Marsanne B, le Mauzac B, le Muscat à petits grains blancs B, le Muscat d'Alexandrie B, le Parellada B, le Petit manseng B, le Pinot blanc B, le Piquepoul blanc B, le Riesling B, le Roussanne B, le Sauvignon B, le Semillon B, le Sylvaner B, le Terret blanc B, le Tourbat B, L'Ugni blanc B, le Verdelho B, le Vermentino B, le Villard blanc B et le Viognier B.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Coteaux-de-narbonne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-narbonne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cépages gris</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cépages gris utilisés sont : le Grenache gris G, le Pinot gris G, le Sauvignon gris G et le Terret gris G.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Coteaux-de-narbonne</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-narbonne</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cépages roses</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cépages roses utilisés sont : le Chasselas rose Rs, la Clairette rose Rs, le Gewurztraminer Rs et le Mauzac rose Rs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Coteaux-de-narbonne</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-narbonne</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Cépages rouges</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cépages rouges utilisés sont : le Cardinal Rg et le Muscat à petits grains rouges Rg.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Coteaux-de-narbonne</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-narbonne</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Types de vin</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Il existe 6 labellisations différentes :
+Coteaux de Narbonne blanc
+Coteaux de Narbonne rosé
+Coteaux de Narbonne rouge
+Coteaux de Narbonne primeur ou nouveau blanc
+Coteaux de Narbonne primeur ou nouveau rosé
+Coteaux de Narbonne primeur ou nouveau rouge</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Coteaux-de-narbonne</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-narbonne</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Vin et gastronomie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			IGP Coteaux-de-narbonne blanc
 			IGP Coteaux-de-narbonne rouge
-Production et structure des exploitations</t>
+</t>
         </is>
       </c>
     </row>
